--- a/test-data/orange-test-data.xlsx
+++ b/test-data/orange-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumSession\AutomationWorkspace\EmployeeManagementAutomation\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D758C03-3300-4134-A550-654E4A08C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC53B0F9-7122-4B3D-AF08-432416AC4F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="10695" activeTab="1" xr2:uid="{CDAE910E-8D9F-495E-BA51-486DBAE63C0D}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="15360" windowHeight="7530" xr2:uid="{CDAE910E-8D9F-495E-BA51-486DBAE63C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidloginTest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Invalid credentials</t>
   </si>
   <si>
-    <t>adam</t>
-  </si>
-  <si>
-    <t>adam89</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -69,6 +63,30 @@
   </si>
   <si>
     <t>Quick Launch</t>
+  </si>
+  <si>
+    <t>jonh44</t>
+  </si>
+  <si>
+    <t>jonh45</t>
+  </si>
+  <si>
+    <t>jonh46</t>
+  </si>
+  <si>
+    <t>jonh47</t>
+  </si>
+  <si>
+    <t>jonh48</t>
+  </si>
+  <si>
+    <t>jonh49</t>
+  </si>
+  <si>
+    <t>jonh50</t>
+  </si>
+  <si>
+    <t>jonh51</t>
   </si>
 </sst>
 </file>
@@ -426,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA752E31-CFA7-49A7-8728-6424BC1B4142}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,12 +476,89 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -478,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2172EB96-4CD0-4BB9-BCF5-0B29DA7637D3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -497,13 +592,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
